--- a/Doc/newPlanning.xlsx
+++ b/Doc/newPlanning.xlsx
@@ -16,21 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Activité/Jour</t>
   </si>
   <si>
-    <t>Conception BDD + Remplissange</t>
-  </si>
-  <si>
-    <t>PHP Programmation</t>
-  </si>
-  <si>
     <t>Journal de bord</t>
   </si>
   <si>
     <t>Documentation</t>
+  </si>
+  <si>
+    <t>Conception BDD + Remplissage</t>
+  </si>
+  <si>
+    <t>index.php</t>
+  </si>
+  <si>
+    <t>Gestock.php</t>
+  </si>
+  <si>
+    <t>DataToHtml.php</t>
+  </si>
+  <si>
+    <t>category.php</t>
+  </si>
+  <si>
+    <t>productDetails.php</t>
+  </si>
+  <si>
+    <t>login.php + Pages liées</t>
+  </si>
+  <si>
+    <t>Scripts ajouter au panier</t>
+  </si>
+  <si>
+    <t>Scripts passer commande</t>
   </si>
 </sst>
 </file>
@@ -92,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -103,6 +124,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +440,7 @@
     <col min="25" max="88" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,82 +492,158 @@
       <c r="AE1" s="7"/>
       <c r="AF1" s="7"/>
       <c r="AG1" s="7"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH1" s="7">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B1:E1"/>

--- a/Doc/newPlanning.xlsx
+++ b/Doc/newPlanning.xlsx
@@ -121,10 +121,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,66 +444,66 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8">
         <v>2</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8">
         <v>3</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8">
         <v>4</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8">
         <v>5</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8">
         <v>6</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8">
         <v>7</v>
       </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8">
         <v>8</v>
       </c>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7">
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8">
         <v>9</v>
       </c>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7">
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8">
         <v>10</v>
       </c>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -545,14 +545,14 @@
         <v>10</v>
       </c>
       <c r="T7" s="3"/>
-      <c r="U7" s="8"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/Doc/newPlanning.xlsx
+++ b/Doc/newPlanning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Activité/Jour</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Scripts passer commande</t>
+  </si>
+  <si>
+    <t>Pages commandes passées</t>
+  </si>
+  <si>
+    <t>Liens navbar quand connecté</t>
+  </si>
+  <si>
+    <t>Gestion produits ADMIN</t>
+  </si>
+  <si>
+    <t>Gestion users ADMIN</t>
+  </si>
+  <si>
+    <t>Liste des produits à faible stock</t>
   </si>
 </sst>
 </file>
@@ -426,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,92 +568,124 @@
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG13" s="3"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Doc/newPlanning.xlsx
+++ b/Doc/newPlanning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Activité/Jour</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Journal de bord</t>
   </si>
@@ -67,6 +64,12 @@
   </si>
   <si>
     <t>Liste des produits à faible stock</t>
+  </si>
+  <si>
+    <t>Tests + Peaufinage du site</t>
+  </si>
+  <si>
+    <t>Activité\Jour</t>
   </si>
 </sst>
 </file>
@@ -150,12 +153,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -197,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,10 +450,10 @@
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="20" width="4" customWidth="1"/>
@@ -457,7 +463,7 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8">
         <v>1</v>
@@ -522,33 +528,33 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -557,14 +563,14 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -572,40 +578,49 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG13" s="3"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="AG13" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -618,7 +633,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -627,10 +642,18 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4"/>
       <c r="J19" s="4"/>
@@ -641,10 +664,18 @@
       <c r="S19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -711,7 +742,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -723,7 +754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
